--- a/Excel/Data Consolidation.xlsx
+++ b/Excel/Data Consolidation.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Papiya\Excel\Papiya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zensar Training\Advance Analytics\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_85511CEA7B95BCF59BD0F784D31FE6AD155B8D1D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
     <sheet name="2011" sheetId="2" r:id="rId2"/>
     <sheet name="2012" sheetId="11" r:id="rId3"/>
     <sheet name="Final" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="25">
   <si>
     <t>Amy</t>
   </si>
@@ -109,12 +109,15 @@
   <si>
     <t>Stacey</t>
   </si>
+  <si>
+    <t>Data Consolidation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,19 +464,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -506,7 +509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -541,7 +544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -576,7 +579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -611,7 +614,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -646,7 +649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -681,7 +684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -716,7 +719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -751,7 +754,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -786,7 +789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -821,7 +824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -856,10 +859,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <f t="shared" ref="B13:J13" si="0">SUM(B2:B11)</f>
         <v>640</v>
@@ -898,10 +901,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C16:C24">
+  <sortState ref="C16:C24">
     <sortCondition ref="C16:C24"/>
   </sortState>
-  <dataConsolidate topLabels="1" link="1">
+  <dataConsolidate leftLabels="1" topLabels="1" link="1">
     <dataRefs count="3">
       <dataRef ref="A1:K11" sheet="2010"/>
       <dataRef ref="A1:J13" sheet="2011"/>
@@ -914,16 +917,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>20</v>
@@ -953,7 +956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -985,7 +988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f>SUM(B2:B13)</f>
         <v>815</v>
@@ -1375,20 +1378,20 @@
         <v>760</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:B25">
+  <sortState ref="B17:B25">
     <sortCondition ref="B17:B25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1396,16 +1399,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1432,7 +1435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" ref="B15:I15" si="0">SUM(B2:B13)</f>
         <v>725</v>
@@ -1814,20 +1817,20 @@
         <v>735</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:B26">
+  <sortState ref="B18:B26">
     <sortCondition ref="B18:B26"/>
   </sortState>
   <dataConsolidate>
@@ -1842,16 +1845,2065 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <dataConsolidate topLabels="1" link="1">
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <f>'2011'!$B$2</f>
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <f>'2011'!$C$2</f>
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <f>'2011'!$D$2</f>
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <f>'2011'!$E$2</f>
+        <v>80</v>
+      </c>
+      <c r="H2">
+        <f>'2011'!$F$2</f>
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <f>'2011'!$G$2</f>
+        <v>60</v>
+      </c>
+      <c r="J2">
+        <f>'2011'!$H$2</f>
+        <v>80</v>
+      </c>
+      <c r="K2">
+        <f>'2011'!$I$2</f>
+        <v>70</v>
+      </c>
+      <c r="L2">
+        <f>'2011'!$J$2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <f>'2012'!$B$2</f>
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <f>'2012'!$C$2</f>
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <f>'2012'!$D$2</f>
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <f>'2012'!$E$2</f>
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <f>'2012'!$F$2</f>
+        <v>65</v>
+      </c>
+      <c r="J3">
+        <f>'2012'!$G$2</f>
+        <v>75</v>
+      </c>
+      <c r="K3">
+        <f>'2012'!$H$2</f>
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <f>'2012'!$I$2</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)</f>
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D2:D3)</f>
+        <v>125</v>
+      </c>
+      <c r="F4">
+        <f>SUM(F2:F3)</f>
+        <v>105</v>
+      </c>
+      <c r="G4">
+        <f>SUM(G2:G3)</f>
+        <v>130</v>
+      </c>
+      <c r="H4">
+        <f>SUM(H2:H3)</f>
+        <v>115</v>
+      </c>
+      <c r="I4">
+        <f>SUM(I2:I3)</f>
+        <v>125</v>
+      </c>
+      <c r="J4">
+        <f>SUM(J2:J3)</f>
+        <v>155</v>
+      </c>
+      <c r="K4">
+        <f>SUM(K2:K3)</f>
+        <v>120</v>
+      </c>
+      <c r="L4">
+        <f>SUM(L2:L3)</f>
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <f>SUM(N2:N3)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <f>'2011'!$B$3</f>
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <f>'2011'!$C$3</f>
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <f>'2011'!$D$3</f>
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <f>'2011'!$E$3</f>
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <f>'2011'!$F$3</f>
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <f>'2011'!$G$3</f>
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <f>'2011'!$H$3</f>
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <f>'2011'!$I$3</f>
+        <v>55</v>
+      </c>
+      <c r="L5">
+        <f>'2011'!$J$3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <f>'2012'!$B$3</f>
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <f>'2012'!$C$3</f>
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <f>'2012'!$D$3</f>
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <f>'2012'!$E$3</f>
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <f>'2012'!$F$3</f>
+        <v>75</v>
+      </c>
+      <c r="J6">
+        <f>'2012'!$G$3</f>
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <f>'2012'!$H$3</f>
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <f>'2012'!$I$3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C5:C6)</f>
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D5:D6)</f>
+        <v>130</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F5:F6)</f>
+        <v>125</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G5:G6)</f>
+        <v>110</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H5:H6)</f>
+        <v>145</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I5:I6)</f>
+        <v>155</v>
+      </c>
+      <c r="J7">
+        <f>SUM(J5:J6)</f>
+        <v>130</v>
+      </c>
+      <c r="K7">
+        <f>SUM(K5:K6)</f>
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <f>SUM(L5:L6)</f>
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <f>SUM(N5:N6)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <f>'2010'!$B$2</f>
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f>'2010'!$C$2</f>
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <f>'2010'!$D$2</f>
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <f>'2010'!$E$2</f>
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <f>'2010'!$F$2</f>
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <f>'2010'!$G$2</f>
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <f>'2010'!$H$2</f>
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <f>'2010'!$I$2</f>
+        <v>70</v>
+      </c>
+      <c r="L8">
+        <f>'2010'!$J$2</f>
+        <v>45</v>
+      </c>
+      <c r="M8">
+        <f>'2010'!$K$2</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <f>'2011'!$B$4</f>
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <f>'2011'!$C$4</f>
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <f>'2011'!$D$4</f>
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <f>'2011'!$E$4</f>
+        <v>70</v>
+      </c>
+      <c r="H9">
+        <f>'2011'!$F$4</f>
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <f>'2011'!$G$4</f>
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <f>'2011'!$H$4</f>
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <f>'2011'!$I$4</f>
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <f>'2011'!$J$4</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <f>'2012'!$B$4</f>
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <f>'2012'!$C$4</f>
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <f>'2012'!$D$4</f>
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <f>'2012'!$E$4</f>
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <f>'2012'!$F$4</f>
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <f>'2012'!$G$4</f>
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <f>'2012'!$H$4</f>
+        <v>75</v>
+      </c>
+      <c r="N10">
+        <f>'2012'!$I$4</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C8:C10)</f>
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D8:D10)</f>
+        <v>160</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E8:E10)</f>
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F8:F10)</f>
+        <v>190</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G8:G10)</f>
+        <v>205</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H8:H10)</f>
+        <v>185</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I8:I10)</f>
+        <v>160</v>
+      </c>
+      <c r="J11">
+        <f>SUM(J8:J10)</f>
+        <v>185</v>
+      </c>
+      <c r="K11">
+        <f>SUM(K8:K10)</f>
+        <v>205</v>
+      </c>
+      <c r="L11">
+        <f>SUM(L8:L10)</f>
+        <v>110</v>
+      </c>
+      <c r="M11">
+        <f>SUM(M8:M10)</f>
+        <v>80</v>
+      </c>
+      <c r="N11">
+        <f>SUM(N8:N10)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <f>'2010'!$B$3</f>
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <f>'2010'!$C$3</f>
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <f>'2010'!$D$3</f>
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <f>'2010'!$E$3</f>
+        <v>65</v>
+      </c>
+      <c r="H12">
+        <f>'2010'!$F$3</f>
+        <v>60</v>
+      </c>
+      <c r="I12">
+        <f>'2010'!$G$3</f>
+        <v>45</v>
+      </c>
+      <c r="J12">
+        <f>'2010'!$H$3</f>
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <f>'2010'!$I$3</f>
+        <v>60</v>
+      </c>
+      <c r="L12">
+        <f>'2010'!$J$3</f>
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <f>'2010'!$K$3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <f>'2011'!$B$5</f>
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <f>'2011'!$C$5</f>
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <f>'2011'!$D$5</f>
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <f>'2011'!$E$5</f>
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <f>'2011'!$F$5</f>
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <f>'2011'!$G$5</f>
+        <v>80</v>
+      </c>
+      <c r="J13">
+        <f>'2011'!$H$5</f>
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <f>'2011'!$I$5</f>
+        <v>60</v>
+      </c>
+      <c r="L13">
+        <f>'2011'!$J$5</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <f>'2012'!$B$5</f>
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <f>'2012'!$C$5</f>
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <f>'2012'!$D$5</f>
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <f>'2012'!$E$5</f>
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <f>'2012'!$F$5</f>
+        <v>70</v>
+      </c>
+      <c r="J14">
+        <f>'2012'!$G$5</f>
+        <v>55</v>
+      </c>
+      <c r="K14">
+        <f>'2012'!$H$5</f>
+        <v>60</v>
+      </c>
+      <c r="N14">
+        <f>'2012'!$I$5</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C12:C14)</f>
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D12:D14)</f>
+        <v>225</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E12:E14)</f>
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F12:F14)</f>
+        <v>170</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G12:G14)</f>
+        <v>185</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H12:H14)</f>
+        <v>205</v>
+      </c>
+      <c r="I15">
+        <f>SUM(I12:I14)</f>
+        <v>195</v>
+      </c>
+      <c r="J15">
+        <f>SUM(J12:J14)</f>
+        <v>165</v>
+      </c>
+      <c r="K15">
+        <f>SUM(K12:K14)</f>
+        <v>180</v>
+      </c>
+      <c r="L15">
+        <f>SUM(L12:L14)</f>
+        <v>155</v>
+      </c>
+      <c r="M15">
+        <f>SUM(M12:M14)</f>
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <f>SUM(N12:N14)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <f>'2010'!$B$4</f>
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <f>'2010'!$C$4</f>
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <f>'2010'!$D$4</f>
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <f>'2010'!$E$4</f>
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <f>'2010'!$F$4</f>
+        <v>65</v>
+      </c>
+      <c r="I16">
+        <f>'2010'!$G$4</f>
+        <v>75</v>
+      </c>
+      <c r="J16">
+        <f>'2010'!$H$4</f>
+        <v>45</v>
+      </c>
+      <c r="K16">
+        <f>'2010'!$I$4</f>
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <f>'2010'!$J$4</f>
+        <v>65</v>
+      </c>
+      <c r="M16">
+        <f>'2010'!$K$4</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <f>'2011'!$B$6</f>
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <f>'2011'!$C$6</f>
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <f>'2011'!$D$6</f>
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <f>'2011'!$E$6</f>
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <f>'2011'!$F$6</f>
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <f>'2011'!$G$6</f>
+        <v>65</v>
+      </c>
+      <c r="J17">
+        <f>'2011'!$H$6</f>
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <f>'2011'!$I$6</f>
+        <v>65</v>
+      </c>
+      <c r="L17">
+        <f>'2011'!$J$6</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <f>'2012'!$B$6</f>
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <f>'2012'!$C$6</f>
+        <v>80</v>
+      </c>
+      <c r="G18">
+        <f>'2012'!$D$6</f>
+        <v>55</v>
+      </c>
+      <c r="H18">
+        <f>'2012'!$E$6</f>
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <f>'2012'!$F$6</f>
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <f>'2012'!$G$6</f>
+        <v>45</v>
+      </c>
+      <c r="K18">
+        <f>'2012'!$H$6</f>
+        <v>80</v>
+      </c>
+      <c r="N18">
+        <f>'2012'!$I$6</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C16:C18)</f>
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <f>SUM(D16:D18)</f>
+        <v>170</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E16:E18)</f>
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <f>SUM(F16:F18)</f>
+        <v>220</v>
+      </c>
+      <c r="G19">
+        <f>SUM(G16:G18)</f>
+        <v>180</v>
+      </c>
+      <c r="H19">
+        <f>SUM(H16:H18)</f>
+        <v>180</v>
+      </c>
+      <c r="I19">
+        <f>SUM(I16:I18)</f>
+        <v>190</v>
+      </c>
+      <c r="J19">
+        <f>SUM(J16:J18)</f>
+        <v>150</v>
+      </c>
+      <c r="K19">
+        <f>SUM(K16:K18)</f>
+        <v>195</v>
+      </c>
+      <c r="L19">
+        <f>SUM(L16:L18)</f>
+        <v>115</v>
+      </c>
+      <c r="M19">
+        <f>SUM(M16:M18)</f>
+        <v>70</v>
+      </c>
+      <c r="N19">
+        <f>SUM(N16:N18)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <f>'2010'!$B$5</f>
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <f>'2010'!$C$5</f>
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <f>'2010'!$D$5</f>
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <f>'2010'!$E$5</f>
+        <v>70</v>
+      </c>
+      <c r="H20">
+        <f>'2010'!$F$5</f>
+        <v>70</v>
+      </c>
+      <c r="I20">
+        <f>'2010'!$G$5</f>
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <f>'2010'!$H$5</f>
+        <v>75</v>
+      </c>
+      <c r="K20">
+        <f>'2010'!$I$5</f>
+        <v>50</v>
+      </c>
+      <c r="L20">
+        <f>'2010'!$J$5</f>
+        <v>75</v>
+      </c>
+      <c r="M20">
+        <f>'2010'!$K$5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <f>'2011'!$B$7</f>
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <f>'2011'!$C$7</f>
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <f>'2011'!$D$7</f>
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <f>'2011'!$E$7</f>
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <f>'2011'!$F$7</f>
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <f>'2011'!$G$7</f>
+        <v>75</v>
+      </c>
+      <c r="J21">
+        <f>'2011'!$H$7</f>
+        <v>80</v>
+      </c>
+      <c r="K21">
+        <f>'2011'!$I$7</f>
+        <v>70</v>
+      </c>
+      <c r="L21">
+        <f>'2011'!$J$7</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <f>'2012'!$B$7</f>
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <f>'2012'!$C$7</f>
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <f>'2012'!$D$7</f>
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <f>'2012'!$E$7</f>
+        <v>60</v>
+      </c>
+      <c r="I22">
+        <f>'2012'!$F$7</f>
+        <v>60</v>
+      </c>
+      <c r="J22">
+        <f>'2012'!$G$7</f>
+        <v>75</v>
+      </c>
+      <c r="K22">
+        <f>'2012'!$H$7</f>
+        <v>65</v>
+      </c>
+      <c r="N22">
+        <f>'2012'!$I$7</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C20:C22)</f>
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D20:D22)</f>
+        <v>170</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E20:E22)</f>
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F20:F22)</f>
+        <v>170</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G20:G22)</f>
+        <v>165</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H20:H22)</f>
+        <v>190</v>
+      </c>
+      <c r="I23">
+        <f>SUM(I20:I22)</f>
+        <v>195</v>
+      </c>
+      <c r="J23">
+        <f>SUM(J20:J22)</f>
+        <v>230</v>
+      </c>
+      <c r="K23">
+        <f>SUM(K20:K22)</f>
+        <v>185</v>
+      </c>
+      <c r="L23">
+        <f>SUM(L20:L22)</f>
+        <v>150</v>
+      </c>
+      <c r="M23">
+        <f>SUM(M20:M22)</f>
+        <v>50</v>
+      </c>
+      <c r="N23">
+        <f>SUM(N20:N22)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <f>'2010'!$B$6</f>
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <f>'2010'!$C$6</f>
+        <v>75</v>
+      </c>
+      <c r="F24">
+        <f>'2010'!$D$6</f>
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <f>'2010'!$E$6</f>
+        <v>65</v>
+      </c>
+      <c r="H24">
+        <f>'2010'!$F$6</f>
+        <v>60</v>
+      </c>
+      <c r="I24">
+        <f>'2010'!$G$6</f>
+        <v>80</v>
+      </c>
+      <c r="J24">
+        <f>'2010'!$H$6</f>
+        <v>65</v>
+      </c>
+      <c r="K24">
+        <f>'2010'!$I$6</f>
+        <v>45</v>
+      </c>
+      <c r="L24">
+        <f>'2010'!$J$6</f>
+        <v>65</v>
+      </c>
+      <c r="M24">
+        <f>'2010'!$K$6</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <f>'2011'!$B$8</f>
+        <v>65</v>
+      </c>
+      <c r="D25">
+        <f>'2011'!$C$8</f>
+        <v>75</v>
+      </c>
+      <c r="F25">
+        <f>'2011'!$D$8</f>
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <f>'2011'!$E$8</f>
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <f>'2011'!$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="I25">
+        <f>'2011'!$G$8</f>
+        <v>65</v>
+      </c>
+      <c r="J25">
+        <f>'2011'!$H$8</f>
+        <v>65</v>
+      </c>
+      <c r="K25">
+        <f>'2011'!$I$8</f>
+        <v>70</v>
+      </c>
+      <c r="L25">
+        <f>'2011'!$J$8</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <f>'2012'!$B$8</f>
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <f>'2012'!$C$8</f>
+        <v>70</v>
+      </c>
+      <c r="G26">
+        <f>'2012'!$D$8</f>
+        <v>75</v>
+      </c>
+      <c r="H26">
+        <f>'2012'!$E$8</f>
+        <v>55</v>
+      </c>
+      <c r="I26">
+        <f>'2012'!$F$8</f>
+        <v>80</v>
+      </c>
+      <c r="J26">
+        <f>'2012'!$G$8</f>
+        <v>65</v>
+      </c>
+      <c r="K26">
+        <f>'2012'!$H$8</f>
+        <v>70</v>
+      </c>
+      <c r="N26">
+        <f>'2012'!$I$8</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C24:C26)</f>
+        <v>65</v>
+      </c>
+      <c r="D27">
+        <f>SUM(D24:D26)</f>
+        <v>205</v>
+      </c>
+      <c r="E27">
+        <f>SUM(E24:E26)</f>
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <f>SUM(F24:F26)</f>
+        <v>210</v>
+      </c>
+      <c r="G27">
+        <f>SUM(G24:G26)</f>
+        <v>185</v>
+      </c>
+      <c r="H27">
+        <f>SUM(H24:H26)</f>
+        <v>175</v>
+      </c>
+      <c r="I27">
+        <f>SUM(I24:I26)</f>
+        <v>225</v>
+      </c>
+      <c r="J27">
+        <f>SUM(J24:J26)</f>
+        <v>195</v>
+      </c>
+      <c r="K27">
+        <f>SUM(K24:K26)</f>
+        <v>185</v>
+      </c>
+      <c r="L27">
+        <f>SUM(L24:L26)</f>
+        <v>135</v>
+      </c>
+      <c r="M27">
+        <f>SUM(M24:M26)</f>
+        <v>60</v>
+      </c>
+      <c r="N27">
+        <f>SUM(N24:N26)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <f>'2010'!$B$7</f>
+        <v>60</v>
+      </c>
+      <c r="E28">
+        <f>'2010'!$C$7</f>
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <f>'2010'!$D$7</f>
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <f>'2010'!$E$7</f>
+        <v>75</v>
+      </c>
+      <c r="H28">
+        <f>'2010'!$F$7</f>
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <f>'2010'!$G$7</f>
+        <v>65</v>
+      </c>
+      <c r="J28">
+        <f>'2010'!$H$7</f>
+        <v>75</v>
+      </c>
+      <c r="K28">
+        <f>'2010'!$I$7</f>
+        <v>75</v>
+      </c>
+      <c r="L28">
+        <f>'2010'!$J$7</f>
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <f>'2010'!$K$7</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <f>'2011'!$B$9</f>
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <f>'2011'!$C$9</f>
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <f>'2011'!$D$9</f>
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <f>'2011'!$E$9</f>
+        <v>75</v>
+      </c>
+      <c r="H29">
+        <f>'2011'!$F$9</f>
+        <v>65</v>
+      </c>
+      <c r="I29">
+        <f>'2011'!$G$9</f>
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <f>'2011'!$H$9</f>
+        <v>75</v>
+      </c>
+      <c r="K29">
+        <f>'2011'!$I$9</f>
+        <v>50</v>
+      </c>
+      <c r="L29">
+        <f>'2011'!$J$9</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <f>'2012'!$B$9</f>
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <f>'2012'!$C$9</f>
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <f>'2012'!$D$9</f>
+        <v>60</v>
+      </c>
+      <c r="H30">
+        <f>'2012'!$E$9</f>
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <f>'2012'!$F$9</f>
+        <v>75</v>
+      </c>
+      <c r="J30">
+        <f>'2012'!$G$9</f>
+        <v>75</v>
+      </c>
+      <c r="K30">
+        <f>'2012'!$H$9</f>
+        <v>60</v>
+      </c>
+      <c r="N30">
+        <f>'2012'!$I$9</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C28:C30)</f>
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D28:D30)</f>
+        <v>165</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E28:E30)</f>
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F28:F30)</f>
+        <v>180</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G28:G30)</f>
+        <v>210</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H28:H30)</f>
+        <v>165</v>
+      </c>
+      <c r="I31">
+        <f>SUM(I28:I30)</f>
+        <v>190</v>
+      </c>
+      <c r="J31">
+        <f>SUM(J28:J30)</f>
+        <v>225</v>
+      </c>
+      <c r="K31">
+        <f>SUM(K28:K30)</f>
+        <v>185</v>
+      </c>
+      <c r="L31">
+        <f>SUM(L28:L30)</f>
+        <v>110</v>
+      </c>
+      <c r="M31">
+        <f>SUM(M28:M30)</f>
+        <v>60</v>
+      </c>
+      <c r="N31">
+        <f>SUM(N28:N30)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <f>'2010'!$B$8</f>
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <f>'2010'!$C$8</f>
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <f>'2010'!$D$8</f>
+        <v>75</v>
+      </c>
+      <c r="G32">
+        <f>'2010'!$E$8</f>
+        <v>65</v>
+      </c>
+      <c r="H32">
+        <f>'2010'!$F$8</f>
+        <v>50</v>
+      </c>
+      <c r="I32">
+        <f>'2010'!$G$8</f>
+        <v>70</v>
+      </c>
+      <c r="J32">
+        <f>'2010'!$H$8</f>
+        <v>60</v>
+      </c>
+      <c r="K32">
+        <f>'2010'!$I$8</f>
+        <v>65</v>
+      </c>
+      <c r="L32">
+        <f>'2010'!$J$8</f>
+        <v>45</v>
+      </c>
+      <c r="M32">
+        <f>'2010'!$K$8</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <f>'2011'!$B$10</f>
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <f>'2011'!$C$10</f>
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <f>'2011'!$D$10</f>
+        <v>70</v>
+      </c>
+      <c r="G33">
+        <f>'2011'!$E$10</f>
+        <v>60</v>
+      </c>
+      <c r="H33">
+        <f>'2011'!$F$10</f>
+        <v>90</v>
+      </c>
+      <c r="I33">
+        <f>'2011'!$G$10</f>
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <f>'2011'!$H$10</f>
+        <v>60</v>
+      </c>
+      <c r="K33">
+        <f>'2011'!$I$10</f>
+        <v>55</v>
+      </c>
+      <c r="L33">
+        <f>'2011'!$J$10</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <f>'2012'!$B$10</f>
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <f>'2012'!$C$10</f>
+        <v>60</v>
+      </c>
+      <c r="G34">
+        <f>'2012'!$D$10</f>
+        <v>80</v>
+      </c>
+      <c r="H34">
+        <f>'2012'!$E$10</f>
+        <v>70</v>
+      </c>
+      <c r="I34">
+        <f>'2012'!$F$10</f>
+        <v>50</v>
+      </c>
+      <c r="J34">
+        <f>'2012'!$G$10</f>
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <f>'2012'!$H$10</f>
+        <v>50</v>
+      </c>
+      <c r="N34">
+        <f>'2012'!$I$10</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C32:C34)</f>
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <f>SUM(D32:D34)</f>
+        <v>170</v>
+      </c>
+      <c r="E35">
+        <f>SUM(E32:E34)</f>
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <f>SUM(F32:F34)</f>
+        <v>205</v>
+      </c>
+      <c r="G35">
+        <f>SUM(G32:G34)</f>
+        <v>205</v>
+      </c>
+      <c r="H35">
+        <f>SUM(H32:H34)</f>
+        <v>210</v>
+      </c>
+      <c r="I35">
+        <f>SUM(I32:I34)</f>
+        <v>170</v>
+      </c>
+      <c r="J35">
+        <f>SUM(J32:J34)</f>
+        <v>170</v>
+      </c>
+      <c r="K35">
+        <f>SUM(K32:K34)</f>
+        <v>170</v>
+      </c>
+      <c r="L35">
+        <f>SUM(L32:L34)</f>
+        <v>95</v>
+      </c>
+      <c r="M35">
+        <f>SUM(M32:M34)</f>
+        <v>55</v>
+      </c>
+      <c r="N35">
+        <f>SUM(N32:N34)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <f>'2010'!$B$9</f>
+        <v>75</v>
+      </c>
+      <c r="E36">
+        <f>'2010'!$C$9</f>
+        <v>55</v>
+      </c>
+      <c r="F36">
+        <f>'2010'!$D$9</f>
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <f>'2010'!$E$9</f>
+        <v>60</v>
+      </c>
+      <c r="H36">
+        <f>'2010'!$F$9</f>
+        <v>70</v>
+      </c>
+      <c r="I36">
+        <f>'2010'!$G$9</f>
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <f>'2010'!$H$9</f>
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <f>'2010'!$I$9</f>
+        <v>75</v>
+      </c>
+      <c r="L36">
+        <f>'2010'!$J$9</f>
+        <v>75</v>
+      </c>
+      <c r="M36">
+        <f>'2010'!$K$9</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <f>'2011'!$B$11</f>
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <f>'2011'!$C$11</f>
+        <v>55</v>
+      </c>
+      <c r="F37">
+        <f>'2011'!$D$11</f>
+        <v>60</v>
+      </c>
+      <c r="G37">
+        <f>'2011'!$E$11</f>
+        <v>75</v>
+      </c>
+      <c r="H37">
+        <f>'2011'!$F$11</f>
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <f>'2011'!$G$11</f>
+        <v>75</v>
+      </c>
+      <c r="J37">
+        <f>'2011'!$H$11</f>
+        <v>75</v>
+      </c>
+      <c r="K37">
+        <f>'2011'!$I$11</f>
+        <v>70</v>
+      </c>
+      <c r="L37">
+        <f>'2011'!$J$11</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <f>'2012'!$B$11</f>
+        <v>65</v>
+      </c>
+      <c r="F38">
+        <f>'2012'!$C$11</f>
+        <v>65</v>
+      </c>
+      <c r="G38">
+        <f>'2012'!$D$11</f>
+        <v>65</v>
+      </c>
+      <c r="H38">
+        <f>'2012'!$E$11</f>
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <f>'2012'!$F$11</f>
+        <v>60</v>
+      </c>
+      <c r="J38">
+        <f>'2012'!$G$11</f>
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <f>'2012'!$H$11</f>
+        <v>80</v>
+      </c>
+      <c r="N38">
+        <f>'2012'!$I$11</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <f>SUM(C36:C38)</f>
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D36:D38)</f>
+        <v>195</v>
+      </c>
+      <c r="E39">
+        <f>SUM(E36:E38)</f>
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <f>SUM(F36:F38)</f>
+        <v>175</v>
+      </c>
+      <c r="G39">
+        <f>SUM(G36:G38)</f>
+        <v>200</v>
+      </c>
+      <c r="H39">
+        <f>SUM(H36:H38)</f>
+        <v>170</v>
+      </c>
+      <c r="I39">
+        <f>SUM(I36:I38)</f>
+        <v>195</v>
+      </c>
+      <c r="J39">
+        <f>SUM(J36:J38)</f>
+        <v>175</v>
+      </c>
+      <c r="K39">
+        <f>SUM(K36:K38)</f>
+        <v>225</v>
+      </c>
+      <c r="L39">
+        <f>SUM(L36:L38)</f>
+        <v>150</v>
+      </c>
+      <c r="M39">
+        <f>SUM(M36:M38)</f>
+        <v>45</v>
+      </c>
+      <c r="N39">
+        <f>SUM(N36:N38)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <f>'2010'!$B$10</f>
+        <v>65</v>
+      </c>
+      <c r="E40">
+        <f>'2010'!$C$10</f>
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <f>'2010'!$D$10</f>
+        <v>60</v>
+      </c>
+      <c r="G40">
+        <f>'2010'!$E$10</f>
+        <v>60</v>
+      </c>
+      <c r="H40">
+        <f>'2010'!$F$10</f>
+        <v>60</v>
+      </c>
+      <c r="I40">
+        <f>'2010'!$G$10</f>
+        <v>50</v>
+      </c>
+      <c r="J40">
+        <f>'2010'!$H$10</f>
+        <v>45</v>
+      </c>
+      <c r="K40">
+        <f>'2010'!$I$10</f>
+        <v>65</v>
+      </c>
+      <c r="L40">
+        <f>'2010'!$J$10</f>
+        <v>80</v>
+      </c>
+      <c r="M40">
+        <f>'2010'!$K$10</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <f>'2011'!$B$12</f>
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <f>'2011'!$C$12</f>
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <f>'2011'!$D$12</f>
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <f>'2011'!$E$12</f>
+        <v>65</v>
+      </c>
+      <c r="H41">
+        <f>'2011'!$F$12</f>
+        <v>60</v>
+      </c>
+      <c r="I41">
+        <f>'2011'!$G$12</f>
+        <v>80</v>
+      </c>
+      <c r="J41">
+        <f>'2011'!$H$12</f>
+        <v>65</v>
+      </c>
+      <c r="K41">
+        <f>'2011'!$I$12</f>
+        <v>60</v>
+      </c>
+      <c r="L41">
+        <f>'2011'!$J$12</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <f>'2012'!$B$12</f>
+        <v>70</v>
+      </c>
+      <c r="F42">
+        <f>'2012'!$C$12</f>
+        <v>70</v>
+      </c>
+      <c r="G42">
+        <f>'2012'!$D$12</f>
+        <v>75</v>
+      </c>
+      <c r="H42">
+        <f>'2012'!$E$12</f>
+        <v>60</v>
+      </c>
+      <c r="I42">
+        <f>'2012'!$F$12</f>
+        <v>55</v>
+      </c>
+      <c r="J42">
+        <f>'2012'!$G$12</f>
+        <v>60</v>
+      </c>
+      <c r="K42">
+        <f>'2012'!$H$12</f>
+        <v>60</v>
+      </c>
+      <c r="N42">
+        <f>'2012'!$I$12</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C40:C42)</f>
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D40:D42)</f>
+        <v>180</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E40:E42)</f>
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F40:F42)</f>
+        <v>180</v>
+      </c>
+      <c r="G43">
+        <f>SUM(G40:G42)</f>
+        <v>200</v>
+      </c>
+      <c r="H43">
+        <f>SUM(H40:H42)</f>
+        <v>180</v>
+      </c>
+      <c r="I43">
+        <f>SUM(I40:I42)</f>
+        <v>185</v>
+      </c>
+      <c r="J43">
+        <f>SUM(J40:J42)</f>
+        <v>170</v>
+      </c>
+      <c r="K43">
+        <f>SUM(K40:K42)</f>
+        <v>185</v>
+      </c>
+      <c r="L43">
+        <f>SUM(L40:L42)</f>
+        <v>150</v>
+      </c>
+      <c r="M43">
+        <f>SUM(M40:M42)</f>
+        <v>75</v>
+      </c>
+      <c r="N43">
+        <f>SUM(N40:N42)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <f>'2010'!$B$11</f>
+        <v>60</v>
+      </c>
+      <c r="E44">
+        <f>'2010'!$C$11</f>
+        <v>65</v>
+      </c>
+      <c r="F44">
+        <f>'2010'!$D$11</f>
+        <v>60</v>
+      </c>
+      <c r="G44">
+        <f>'2010'!$E$11</f>
+        <v>65</v>
+      </c>
+      <c r="H44">
+        <f>'2010'!$F$11</f>
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <f>'2010'!$G$11</f>
+        <v>80</v>
+      </c>
+      <c r="J44">
+        <f>'2010'!$H$11</f>
+        <v>75</v>
+      </c>
+      <c r="K44">
+        <f>'2010'!$I$11</f>
+        <v>65</v>
+      </c>
+      <c r="L44">
+        <f>'2010'!$J$11</f>
+        <v>65</v>
+      </c>
+      <c r="M44">
+        <f>'2010'!$K$11</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <f>'2011'!$B$13</f>
+        <v>65</v>
+      </c>
+      <c r="D45">
+        <f>'2011'!$C$13</f>
+        <v>75</v>
+      </c>
+      <c r="F45">
+        <f>'2011'!$D$13</f>
+        <v>80</v>
+      </c>
+      <c r="G45">
+        <f>'2011'!$E$13</f>
+        <v>65</v>
+      </c>
+      <c r="H45">
+        <f>'2011'!$F$13</f>
+        <v>60</v>
+      </c>
+      <c r="I45">
+        <f>'2011'!$G$13</f>
+        <v>65</v>
+      </c>
+      <c r="J45">
+        <f>'2011'!$H$13</f>
+        <v>65</v>
+      </c>
+      <c r="K45">
+        <f>'2011'!$I$13</f>
+        <v>50</v>
+      </c>
+      <c r="L45">
+        <f>'2011'!$J$13</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <f>'2012'!$B$13</f>
+        <v>70</v>
+      </c>
+      <c r="F46">
+        <f>'2012'!$C$13</f>
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <f>'2012'!$D$13</f>
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <f>'2012'!$E$13</f>
+        <v>80</v>
+      </c>
+      <c r="I46">
+        <f>'2012'!$F$13</f>
+        <v>45</v>
+      </c>
+      <c r="J46">
+        <f>'2012'!$G$13</f>
+        <v>55</v>
+      </c>
+      <c r="K46">
+        <f>'2012'!$H$13</f>
+        <v>50</v>
+      </c>
+      <c r="N46">
+        <f>'2012'!$I$13</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <f>SUM(C44:C46)</f>
+        <v>65</v>
+      </c>
+      <c r="D47">
+        <f>SUM(D44:D46)</f>
+        <v>205</v>
+      </c>
+      <c r="E47">
+        <f>SUM(E44:E46)</f>
+        <v>65</v>
+      </c>
+      <c r="F47">
+        <f>SUM(F44:F46)</f>
+        <v>190</v>
+      </c>
+      <c r="G47">
+        <f>SUM(G44:G46)</f>
+        <v>180</v>
+      </c>
+      <c r="H47">
+        <f>SUM(H44:H46)</f>
+        <v>190</v>
+      </c>
+      <c r="I47">
+        <f>SUM(I44:I46)</f>
+        <v>190</v>
+      </c>
+      <c r="J47">
+        <f>SUM(J44:J46)</f>
+        <v>195</v>
+      </c>
+      <c r="K47">
+        <f>SUM(K44:K46)</f>
+        <v>165</v>
+      </c>
+      <c r="L47">
+        <f>SUM(L44:L46)</f>
+        <v>125</v>
+      </c>
+      <c r="M47">
+        <f>SUM(M44:M46)</f>
+        <v>60</v>
+      </c>
+      <c r="N47">
+        <f>SUM(N44:N46)</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate leftLabels="1" topLabels="1" link="1">
     <dataRefs count="3">
       <dataRef ref="A1:K11" sheet="2010"/>
       <dataRef ref="A1:J13" sheet="2011"/>
@@ -1860,4 +3912,2074 @@
   </dataConsolidate>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <f>'2011'!$B$2</f>
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <f>'2011'!$C$2</f>
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <f>'2011'!$D$2</f>
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <f>'2011'!$E$2</f>
+        <v>80</v>
+      </c>
+      <c r="H2">
+        <f>'2011'!$F$2</f>
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <f>'2011'!$G$2</f>
+        <v>60</v>
+      </c>
+      <c r="J2">
+        <f>'2011'!$H$2</f>
+        <v>80</v>
+      </c>
+      <c r="K2">
+        <f>'2011'!$I$2</f>
+        <v>70</v>
+      </c>
+      <c r="L2">
+        <f>'2011'!$J$2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <f>'2012'!$B$2</f>
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <f>'2012'!$C$2</f>
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <f>'2012'!$D$2</f>
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <f>'2012'!$E$2</f>
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <f>'2012'!$F$2</f>
+        <v>65</v>
+      </c>
+      <c r="J3">
+        <f>'2012'!$G$2</f>
+        <v>75</v>
+      </c>
+      <c r="K3">
+        <f>'2012'!$H$2</f>
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <f>'2012'!$I$2</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)</f>
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D2:D3)</f>
+        <v>125</v>
+      </c>
+      <c r="F4">
+        <f>SUM(F2:F3)</f>
+        <v>105</v>
+      </c>
+      <c r="G4">
+        <f>SUM(G2:G3)</f>
+        <v>130</v>
+      </c>
+      <c r="H4">
+        <f>SUM(H2:H3)</f>
+        <v>115</v>
+      </c>
+      <c r="I4">
+        <f>SUM(I2:I3)</f>
+        <v>125</v>
+      </c>
+      <c r="J4">
+        <f>SUM(J2:J3)</f>
+        <v>155</v>
+      </c>
+      <c r="K4">
+        <f>SUM(K2:K3)</f>
+        <v>120</v>
+      </c>
+      <c r="L4">
+        <f>SUM(L2:L3)</f>
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <f>SUM(N2:N3)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <f>'2011'!$B$3</f>
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <f>'2011'!$C$3</f>
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <f>'2011'!$D$3</f>
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <f>'2011'!$E$3</f>
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <f>'2011'!$F$3</f>
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <f>'2011'!$G$3</f>
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <f>'2011'!$H$3</f>
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <f>'2011'!$I$3</f>
+        <v>55</v>
+      </c>
+      <c r="L5">
+        <f>'2011'!$J$3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <f>'2012'!$B$3</f>
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <f>'2012'!$C$3</f>
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <f>'2012'!$D$3</f>
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <f>'2012'!$E$3</f>
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <f>'2012'!$F$3</f>
+        <v>75</v>
+      </c>
+      <c r="J6">
+        <f>'2012'!$G$3</f>
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <f>'2012'!$H$3</f>
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <f>'2012'!$I$3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C5:C6)</f>
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D5:D6)</f>
+        <v>130</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F5:F6)</f>
+        <v>125</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G5:G6)</f>
+        <v>110</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H5:H6)</f>
+        <v>145</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I5:I6)</f>
+        <v>155</v>
+      </c>
+      <c r="J7">
+        <f>SUM(J5:J6)</f>
+        <v>130</v>
+      </c>
+      <c r="K7">
+        <f>SUM(K5:K6)</f>
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <f>SUM(L5:L6)</f>
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <f>SUM(N5:N6)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <f>'2010'!$B$2</f>
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f>'2010'!$C$2</f>
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <f>'2010'!$D$2</f>
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <f>'2010'!$E$2</f>
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <f>'2010'!$F$2</f>
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <f>'2010'!$G$2</f>
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <f>'2010'!$H$2</f>
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <f>'2010'!$I$2</f>
+        <v>70</v>
+      </c>
+      <c r="L8">
+        <f>'2010'!$J$2</f>
+        <v>45</v>
+      </c>
+      <c r="M8">
+        <f>'2010'!$K$2</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <f>'2011'!$B$4</f>
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <f>'2011'!$C$4</f>
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <f>'2011'!$D$4</f>
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <f>'2011'!$E$4</f>
+        <v>70</v>
+      </c>
+      <c r="H9">
+        <f>'2011'!$F$4</f>
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <f>'2011'!$G$4</f>
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <f>'2011'!$H$4</f>
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <f>'2011'!$I$4</f>
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <f>'2011'!$J$4</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <f>'2012'!$B$4</f>
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <f>'2012'!$C$4</f>
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <f>'2012'!$D$4</f>
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <f>'2012'!$E$4</f>
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <f>'2012'!$F$4</f>
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <f>'2012'!$G$4</f>
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <f>'2012'!$H$4</f>
+        <v>75</v>
+      </c>
+      <c r="N10">
+        <f>'2012'!$I$4</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C8:C10)</f>
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D8:D10)</f>
+        <v>160</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E8:E10)</f>
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F8:F10)</f>
+        <v>190</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G8:G10)</f>
+        <v>205</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H8:H10)</f>
+        <v>185</v>
+      </c>
+      <c r="I11">
+        <f>SUM(I8:I10)</f>
+        <v>160</v>
+      </c>
+      <c r="J11">
+        <f>SUM(J8:J10)</f>
+        <v>185</v>
+      </c>
+      <c r="K11">
+        <f>SUM(K8:K10)</f>
+        <v>205</v>
+      </c>
+      <c r="L11">
+        <f>SUM(L8:L10)</f>
+        <v>110</v>
+      </c>
+      <c r="M11">
+        <f>SUM(M8:M10)</f>
+        <v>80</v>
+      </c>
+      <c r="N11">
+        <f>SUM(N8:N10)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <f>'2010'!$B$3</f>
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <f>'2010'!$C$3</f>
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <f>'2010'!$D$3</f>
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <f>'2010'!$E$3</f>
+        <v>65</v>
+      </c>
+      <c r="H12">
+        <f>'2010'!$F$3</f>
+        <v>60</v>
+      </c>
+      <c r="I12">
+        <f>'2010'!$G$3</f>
+        <v>45</v>
+      </c>
+      <c r="J12">
+        <f>'2010'!$H$3</f>
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <f>'2010'!$I$3</f>
+        <v>60</v>
+      </c>
+      <c r="L12">
+        <f>'2010'!$J$3</f>
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <f>'2010'!$K$3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <f>'2011'!$B$5</f>
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <f>'2011'!$C$5</f>
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <f>'2011'!$D$5</f>
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <f>'2011'!$E$5</f>
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <f>'2011'!$F$5</f>
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <f>'2011'!$G$5</f>
+        <v>80</v>
+      </c>
+      <c r="J13">
+        <f>'2011'!$H$5</f>
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <f>'2011'!$I$5</f>
+        <v>60</v>
+      </c>
+      <c r="L13">
+        <f>'2011'!$J$5</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <f>'2012'!$B$5</f>
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <f>'2012'!$C$5</f>
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <f>'2012'!$D$5</f>
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <f>'2012'!$E$5</f>
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <f>'2012'!$F$5</f>
+        <v>70</v>
+      </c>
+      <c r="J14">
+        <f>'2012'!$G$5</f>
+        <v>55</v>
+      </c>
+      <c r="K14">
+        <f>'2012'!$H$5</f>
+        <v>60</v>
+      </c>
+      <c r="N14">
+        <f>'2012'!$I$5</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C12:C14)</f>
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D12:D14)</f>
+        <v>225</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E12:E14)</f>
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F12:F14)</f>
+        <v>170</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G12:G14)</f>
+        <v>185</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H12:H14)</f>
+        <v>205</v>
+      </c>
+      <c r="I15">
+        <f>SUM(I12:I14)</f>
+        <v>195</v>
+      </c>
+      <c r="J15">
+        <f>SUM(J12:J14)</f>
+        <v>165</v>
+      </c>
+      <c r="K15">
+        <f>SUM(K12:K14)</f>
+        <v>180</v>
+      </c>
+      <c r="L15">
+        <f>SUM(L12:L14)</f>
+        <v>155</v>
+      </c>
+      <c r="M15">
+        <f>SUM(M12:M14)</f>
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <f>SUM(N12:N14)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <f>'2010'!$B$4</f>
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <f>'2010'!$C$4</f>
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <f>'2010'!$D$4</f>
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <f>'2010'!$E$4</f>
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <f>'2010'!$F$4</f>
+        <v>65</v>
+      </c>
+      <c r="I16">
+        <f>'2010'!$G$4</f>
+        <v>75</v>
+      </c>
+      <c r="J16">
+        <f>'2010'!$H$4</f>
+        <v>45</v>
+      </c>
+      <c r="K16">
+        <f>'2010'!$I$4</f>
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <f>'2010'!$J$4</f>
+        <v>65</v>
+      </c>
+      <c r="M16">
+        <f>'2010'!$K$4</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <f>'2011'!$B$6</f>
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <f>'2011'!$C$6</f>
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <f>'2011'!$D$6</f>
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <f>'2011'!$E$6</f>
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <f>'2011'!$F$6</f>
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <f>'2011'!$G$6</f>
+        <v>65</v>
+      </c>
+      <c r="J17">
+        <f>'2011'!$H$6</f>
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <f>'2011'!$I$6</f>
+        <v>65</v>
+      </c>
+      <c r="L17">
+        <f>'2011'!$J$6</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <f>'2012'!$B$6</f>
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <f>'2012'!$C$6</f>
+        <v>80</v>
+      </c>
+      <c r="G18">
+        <f>'2012'!$D$6</f>
+        <v>55</v>
+      </c>
+      <c r="H18">
+        <f>'2012'!$E$6</f>
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <f>'2012'!$F$6</f>
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <f>'2012'!$G$6</f>
+        <v>45</v>
+      </c>
+      <c r="K18">
+        <f>'2012'!$H$6</f>
+        <v>80</v>
+      </c>
+      <c r="N18">
+        <f>'2012'!$I$6</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C16:C18)</f>
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <f>SUM(D16:D18)</f>
+        <v>170</v>
+      </c>
+      <c r="E19">
+        <f>SUM(E16:E18)</f>
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <f>SUM(F16:F18)</f>
+        <v>220</v>
+      </c>
+      <c r="G19">
+        <f>SUM(G16:G18)</f>
+        <v>180</v>
+      </c>
+      <c r="H19">
+        <f>SUM(H16:H18)</f>
+        <v>180</v>
+      </c>
+      <c r="I19">
+        <f>SUM(I16:I18)</f>
+        <v>190</v>
+      </c>
+      <c r="J19">
+        <f>SUM(J16:J18)</f>
+        <v>150</v>
+      </c>
+      <c r="K19">
+        <f>SUM(K16:K18)</f>
+        <v>195</v>
+      </c>
+      <c r="L19">
+        <f>SUM(L16:L18)</f>
+        <v>115</v>
+      </c>
+      <c r="M19">
+        <f>SUM(M16:M18)</f>
+        <v>70</v>
+      </c>
+      <c r="N19">
+        <f>SUM(N16:N18)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <f>'2010'!$B$5</f>
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <f>'2010'!$C$5</f>
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <f>'2010'!$D$5</f>
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <f>'2010'!$E$5</f>
+        <v>70</v>
+      </c>
+      <c r="H20">
+        <f>'2010'!$F$5</f>
+        <v>70</v>
+      </c>
+      <c r="I20">
+        <f>'2010'!$G$5</f>
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <f>'2010'!$H$5</f>
+        <v>75</v>
+      </c>
+      <c r="K20">
+        <f>'2010'!$I$5</f>
+        <v>50</v>
+      </c>
+      <c r="L20">
+        <f>'2010'!$J$5</f>
+        <v>75</v>
+      </c>
+      <c r="M20">
+        <f>'2010'!$K$5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <f>'2011'!$B$7</f>
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <f>'2011'!$C$7</f>
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <f>'2011'!$D$7</f>
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <f>'2011'!$E$7</f>
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <f>'2011'!$F$7</f>
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <f>'2011'!$G$7</f>
+        <v>75</v>
+      </c>
+      <c r="J21">
+        <f>'2011'!$H$7</f>
+        <v>80</v>
+      </c>
+      <c r="K21">
+        <f>'2011'!$I$7</f>
+        <v>70</v>
+      </c>
+      <c r="L21">
+        <f>'2011'!$J$7</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <f>'2012'!$B$7</f>
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <f>'2012'!$C$7</f>
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <f>'2012'!$D$7</f>
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <f>'2012'!$E$7</f>
+        <v>60</v>
+      </c>
+      <c r="I22">
+        <f>'2012'!$F$7</f>
+        <v>60</v>
+      </c>
+      <c r="J22">
+        <f>'2012'!$G$7</f>
+        <v>75</v>
+      </c>
+      <c r="K22">
+        <f>'2012'!$H$7</f>
+        <v>65</v>
+      </c>
+      <c r="N22">
+        <f>'2012'!$I$7</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C20:C22)</f>
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D20:D22)</f>
+        <v>170</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E20:E22)</f>
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F20:F22)</f>
+        <v>170</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G20:G22)</f>
+        <v>165</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H20:H22)</f>
+        <v>190</v>
+      </c>
+      <c r="I23">
+        <f>SUM(I20:I22)</f>
+        <v>195</v>
+      </c>
+      <c r="J23">
+        <f>SUM(J20:J22)</f>
+        <v>230</v>
+      </c>
+      <c r="K23">
+        <f>SUM(K20:K22)</f>
+        <v>185</v>
+      </c>
+      <c r="L23">
+        <f>SUM(L20:L22)</f>
+        <v>150</v>
+      </c>
+      <c r="M23">
+        <f>SUM(M20:M22)</f>
+        <v>50</v>
+      </c>
+      <c r="N23">
+        <f>SUM(N20:N22)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <f>'2010'!$B$6</f>
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <f>'2010'!$C$6</f>
+        <v>75</v>
+      </c>
+      <c r="F24">
+        <f>'2010'!$D$6</f>
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <f>'2010'!$E$6</f>
+        <v>65</v>
+      </c>
+      <c r="H24">
+        <f>'2010'!$F$6</f>
+        <v>60</v>
+      </c>
+      <c r="I24">
+        <f>'2010'!$G$6</f>
+        <v>80</v>
+      </c>
+      <c r="J24">
+        <f>'2010'!$H$6</f>
+        <v>65</v>
+      </c>
+      <c r="K24">
+        <f>'2010'!$I$6</f>
+        <v>45</v>
+      </c>
+      <c r="L24">
+        <f>'2010'!$J$6</f>
+        <v>65</v>
+      </c>
+      <c r="M24">
+        <f>'2010'!$K$6</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <f>'2011'!$B$8</f>
+        <v>65</v>
+      </c>
+      <c r="D25">
+        <f>'2011'!$C$8</f>
+        <v>75</v>
+      </c>
+      <c r="F25">
+        <f>'2011'!$D$8</f>
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <f>'2011'!$E$8</f>
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <f>'2011'!$F$8</f>
+        <v>60</v>
+      </c>
+      <c r="I25">
+        <f>'2011'!$G$8</f>
+        <v>65</v>
+      </c>
+      <c r="J25">
+        <f>'2011'!$H$8</f>
+        <v>65</v>
+      </c>
+      <c r="K25">
+        <f>'2011'!$I$8</f>
+        <v>70</v>
+      </c>
+      <c r="L25">
+        <f>'2011'!$J$8</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <f>'2012'!$B$8</f>
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <f>'2012'!$C$8</f>
+        <v>70</v>
+      </c>
+      <c r="G26">
+        <f>'2012'!$D$8</f>
+        <v>75</v>
+      </c>
+      <c r="H26">
+        <f>'2012'!$E$8</f>
+        <v>55</v>
+      </c>
+      <c r="I26">
+        <f>'2012'!$F$8</f>
+        <v>80</v>
+      </c>
+      <c r="J26">
+        <f>'2012'!$G$8</f>
+        <v>65</v>
+      </c>
+      <c r="K26">
+        <f>'2012'!$H$8</f>
+        <v>70</v>
+      </c>
+      <c r="N26">
+        <f>'2012'!$I$8</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C24:C26)</f>
+        <v>65</v>
+      </c>
+      <c r="D27">
+        <f>SUM(D24:D26)</f>
+        <v>205</v>
+      </c>
+      <c r="E27">
+        <f>SUM(E24:E26)</f>
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <f>SUM(F24:F26)</f>
+        <v>210</v>
+      </c>
+      <c r="G27">
+        <f>SUM(G24:G26)</f>
+        <v>185</v>
+      </c>
+      <c r="H27">
+        <f>SUM(H24:H26)</f>
+        <v>175</v>
+      </c>
+      <c r="I27">
+        <f>SUM(I24:I26)</f>
+        <v>225</v>
+      </c>
+      <c r="J27">
+        <f>SUM(J24:J26)</f>
+        <v>195</v>
+      </c>
+      <c r="K27">
+        <f>SUM(K24:K26)</f>
+        <v>185</v>
+      </c>
+      <c r="L27">
+        <f>SUM(L24:L26)</f>
+        <v>135</v>
+      </c>
+      <c r="M27">
+        <f>SUM(M24:M26)</f>
+        <v>60</v>
+      </c>
+      <c r="N27">
+        <f>SUM(N24:N26)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <f>'2010'!$B$7</f>
+        <v>60</v>
+      </c>
+      <c r="E28">
+        <f>'2010'!$C$7</f>
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <f>'2010'!$D$7</f>
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <f>'2010'!$E$7</f>
+        <v>75</v>
+      </c>
+      <c r="H28">
+        <f>'2010'!$F$7</f>
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <f>'2010'!$G$7</f>
+        <v>65</v>
+      </c>
+      <c r="J28">
+        <f>'2010'!$H$7</f>
+        <v>75</v>
+      </c>
+      <c r="K28">
+        <f>'2010'!$I$7</f>
+        <v>75</v>
+      </c>
+      <c r="L28">
+        <f>'2010'!$J$7</f>
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <f>'2010'!$K$7</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <f>'2011'!$B$9</f>
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <f>'2011'!$C$9</f>
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <f>'2011'!$D$9</f>
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <f>'2011'!$E$9</f>
+        <v>75</v>
+      </c>
+      <c r="H29">
+        <f>'2011'!$F$9</f>
+        <v>65</v>
+      </c>
+      <c r="I29">
+        <f>'2011'!$G$9</f>
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <f>'2011'!$H$9</f>
+        <v>75</v>
+      </c>
+      <c r="K29">
+        <f>'2011'!$I$9</f>
+        <v>50</v>
+      </c>
+      <c r="L29">
+        <f>'2011'!$J$9</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <f>'2012'!$B$9</f>
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <f>'2012'!$C$9</f>
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <f>'2012'!$D$9</f>
+        <v>60</v>
+      </c>
+      <c r="H30">
+        <f>'2012'!$E$9</f>
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <f>'2012'!$F$9</f>
+        <v>75</v>
+      </c>
+      <c r="J30">
+        <f>'2012'!$G$9</f>
+        <v>75</v>
+      </c>
+      <c r="K30">
+        <f>'2012'!$H$9</f>
+        <v>60</v>
+      </c>
+      <c r="N30">
+        <f>'2012'!$I$9</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C28:C30)</f>
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D28:D30)</f>
+        <v>165</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E28:E30)</f>
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F28:F30)</f>
+        <v>180</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G28:G30)</f>
+        <v>210</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H28:H30)</f>
+        <v>165</v>
+      </c>
+      <c r="I31">
+        <f>SUM(I28:I30)</f>
+        <v>190</v>
+      </c>
+      <c r="J31">
+        <f>SUM(J28:J30)</f>
+        <v>225</v>
+      </c>
+      <c r="K31">
+        <f>SUM(K28:K30)</f>
+        <v>185</v>
+      </c>
+      <c r="L31">
+        <f>SUM(L28:L30)</f>
+        <v>110</v>
+      </c>
+      <c r="M31">
+        <f>SUM(M28:M30)</f>
+        <v>60</v>
+      </c>
+      <c r="N31">
+        <f>SUM(N28:N30)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <f>'2010'!$B$8</f>
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <f>'2010'!$C$8</f>
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <f>'2010'!$D$8</f>
+        <v>75</v>
+      </c>
+      <c r="G32">
+        <f>'2010'!$E$8</f>
+        <v>65</v>
+      </c>
+      <c r="H32">
+        <f>'2010'!$F$8</f>
+        <v>50</v>
+      </c>
+      <c r="I32">
+        <f>'2010'!$G$8</f>
+        <v>70</v>
+      </c>
+      <c r="J32">
+        <f>'2010'!$H$8</f>
+        <v>60</v>
+      </c>
+      <c r="K32">
+        <f>'2010'!$I$8</f>
+        <v>65</v>
+      </c>
+      <c r="L32">
+        <f>'2010'!$J$8</f>
+        <v>45</v>
+      </c>
+      <c r="M32">
+        <f>'2010'!$K$8</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <f>'2011'!$B$10</f>
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <f>'2011'!$C$10</f>
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <f>'2011'!$D$10</f>
+        <v>70</v>
+      </c>
+      <c r="G33">
+        <f>'2011'!$E$10</f>
+        <v>60</v>
+      </c>
+      <c r="H33">
+        <f>'2011'!$F$10</f>
+        <v>90</v>
+      </c>
+      <c r="I33">
+        <f>'2011'!$G$10</f>
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <f>'2011'!$H$10</f>
+        <v>60</v>
+      </c>
+      <c r="K33">
+        <f>'2011'!$I$10</f>
+        <v>55</v>
+      </c>
+      <c r="L33">
+        <f>'2011'!$J$10</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <f>'2012'!$B$10</f>
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <f>'2012'!$C$10</f>
+        <v>60</v>
+      </c>
+      <c r="G34">
+        <f>'2012'!$D$10</f>
+        <v>80</v>
+      </c>
+      <c r="H34">
+        <f>'2012'!$E$10</f>
+        <v>70</v>
+      </c>
+      <c r="I34">
+        <f>'2012'!$F$10</f>
+        <v>50</v>
+      </c>
+      <c r="J34">
+        <f>'2012'!$G$10</f>
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <f>'2012'!$H$10</f>
+        <v>50</v>
+      </c>
+      <c r="N34">
+        <f>'2012'!$I$10</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C32:C34)</f>
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <f>SUM(D32:D34)</f>
+        <v>170</v>
+      </c>
+      <c r="E35">
+        <f>SUM(E32:E34)</f>
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <f>SUM(F32:F34)</f>
+        <v>205</v>
+      </c>
+      <c r="G35">
+        <f>SUM(G32:G34)</f>
+        <v>205</v>
+      </c>
+      <c r="H35">
+        <f>SUM(H32:H34)</f>
+        <v>210</v>
+      </c>
+      <c r="I35">
+        <f>SUM(I32:I34)</f>
+        <v>170</v>
+      </c>
+      <c r="J35">
+        <f>SUM(J32:J34)</f>
+        <v>170</v>
+      </c>
+      <c r="K35">
+        <f>SUM(K32:K34)</f>
+        <v>170</v>
+      </c>
+      <c r="L35">
+        <f>SUM(L32:L34)</f>
+        <v>95</v>
+      </c>
+      <c r="M35">
+        <f>SUM(M32:M34)</f>
+        <v>55</v>
+      </c>
+      <c r="N35">
+        <f>SUM(N32:N34)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <f>'2010'!$B$9</f>
+        <v>75</v>
+      </c>
+      <c r="E36">
+        <f>'2010'!$C$9</f>
+        <v>55</v>
+      </c>
+      <c r="F36">
+        <f>'2010'!$D$9</f>
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <f>'2010'!$E$9</f>
+        <v>60</v>
+      </c>
+      <c r="H36">
+        <f>'2010'!$F$9</f>
+        <v>70</v>
+      </c>
+      <c r="I36">
+        <f>'2010'!$G$9</f>
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <f>'2010'!$H$9</f>
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <f>'2010'!$I$9</f>
+        <v>75</v>
+      </c>
+      <c r="L36">
+        <f>'2010'!$J$9</f>
+        <v>75</v>
+      </c>
+      <c r="M36">
+        <f>'2010'!$K$9</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <f>'2011'!$B$11</f>
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <f>'2011'!$C$11</f>
+        <v>55</v>
+      </c>
+      <c r="F37">
+        <f>'2011'!$D$11</f>
+        <v>60</v>
+      </c>
+      <c r="G37">
+        <f>'2011'!$E$11</f>
+        <v>75</v>
+      </c>
+      <c r="H37">
+        <f>'2011'!$F$11</f>
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <f>'2011'!$G$11</f>
+        <v>75</v>
+      </c>
+      <c r="J37">
+        <f>'2011'!$H$11</f>
+        <v>75</v>
+      </c>
+      <c r="K37">
+        <f>'2011'!$I$11</f>
+        <v>70</v>
+      </c>
+      <c r="L37">
+        <f>'2011'!$J$11</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <f>'2012'!$B$11</f>
+        <v>65</v>
+      </c>
+      <c r="F38">
+        <f>'2012'!$C$11</f>
+        <v>65</v>
+      </c>
+      <c r="G38">
+        <f>'2012'!$D$11</f>
+        <v>65</v>
+      </c>
+      <c r="H38">
+        <f>'2012'!$E$11</f>
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <f>'2012'!$F$11</f>
+        <v>60</v>
+      </c>
+      <c r="J38">
+        <f>'2012'!$G$11</f>
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <f>'2012'!$H$11</f>
+        <v>80</v>
+      </c>
+      <c r="N38">
+        <f>'2012'!$I$11</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <f>SUM(C36:C38)</f>
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D36:D38)</f>
+        <v>195</v>
+      </c>
+      <c r="E39">
+        <f>SUM(E36:E38)</f>
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <f>SUM(F36:F38)</f>
+        <v>175</v>
+      </c>
+      <c r="G39">
+        <f>SUM(G36:G38)</f>
+        <v>200</v>
+      </c>
+      <c r="H39">
+        <f>SUM(H36:H38)</f>
+        <v>170</v>
+      </c>
+      <c r="I39">
+        <f>SUM(I36:I38)</f>
+        <v>195</v>
+      </c>
+      <c r="J39">
+        <f>SUM(J36:J38)</f>
+        <v>175</v>
+      </c>
+      <c r="K39">
+        <f>SUM(K36:K38)</f>
+        <v>225</v>
+      </c>
+      <c r="L39">
+        <f>SUM(L36:L38)</f>
+        <v>150</v>
+      </c>
+      <c r="M39">
+        <f>SUM(M36:M38)</f>
+        <v>45</v>
+      </c>
+      <c r="N39">
+        <f>SUM(N36:N38)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <f>'2010'!$B$10</f>
+        <v>65</v>
+      </c>
+      <c r="E40">
+        <f>'2010'!$C$10</f>
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <f>'2010'!$D$10</f>
+        <v>60</v>
+      </c>
+      <c r="G40">
+        <f>'2010'!$E$10</f>
+        <v>60</v>
+      </c>
+      <c r="H40">
+        <f>'2010'!$F$10</f>
+        <v>60</v>
+      </c>
+      <c r="I40">
+        <f>'2010'!$G$10</f>
+        <v>50</v>
+      </c>
+      <c r="J40">
+        <f>'2010'!$H$10</f>
+        <v>45</v>
+      </c>
+      <c r="K40">
+        <f>'2010'!$I$10</f>
+        <v>65</v>
+      </c>
+      <c r="L40">
+        <f>'2010'!$J$10</f>
+        <v>80</v>
+      </c>
+      <c r="M40">
+        <f>'2010'!$K$10</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <f>'2011'!$B$12</f>
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <f>'2011'!$C$12</f>
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <f>'2011'!$D$12</f>
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <f>'2011'!$E$12</f>
+        <v>65</v>
+      </c>
+      <c r="H41">
+        <f>'2011'!$F$12</f>
+        <v>60</v>
+      </c>
+      <c r="I41">
+        <f>'2011'!$G$12</f>
+        <v>80</v>
+      </c>
+      <c r="J41">
+        <f>'2011'!$H$12</f>
+        <v>65</v>
+      </c>
+      <c r="K41">
+        <f>'2011'!$I$12</f>
+        <v>60</v>
+      </c>
+      <c r="L41">
+        <f>'2011'!$J$12</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <f>'2012'!$B$12</f>
+        <v>70</v>
+      </c>
+      <c r="F42">
+        <f>'2012'!$C$12</f>
+        <v>70</v>
+      </c>
+      <c r="G42">
+        <f>'2012'!$D$12</f>
+        <v>75</v>
+      </c>
+      <c r="H42">
+        <f>'2012'!$E$12</f>
+        <v>60</v>
+      </c>
+      <c r="I42">
+        <f>'2012'!$F$12</f>
+        <v>55</v>
+      </c>
+      <c r="J42">
+        <f>'2012'!$G$12</f>
+        <v>60</v>
+      </c>
+      <c r="K42">
+        <f>'2012'!$H$12</f>
+        <v>60</v>
+      </c>
+      <c r="N42">
+        <f>'2012'!$I$12</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C40:C42)</f>
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D40:D42)</f>
+        <v>180</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E40:E42)</f>
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F40:F42)</f>
+        <v>180</v>
+      </c>
+      <c r="G43">
+        <f>SUM(G40:G42)</f>
+        <v>200</v>
+      </c>
+      <c r="H43">
+        <f>SUM(H40:H42)</f>
+        <v>180</v>
+      </c>
+      <c r="I43">
+        <f>SUM(I40:I42)</f>
+        <v>185</v>
+      </c>
+      <c r="J43">
+        <f>SUM(J40:J42)</f>
+        <v>170</v>
+      </c>
+      <c r="K43">
+        <f>SUM(K40:K42)</f>
+        <v>185</v>
+      </c>
+      <c r="L43">
+        <f>SUM(L40:L42)</f>
+        <v>150</v>
+      </c>
+      <c r="M43">
+        <f>SUM(M40:M42)</f>
+        <v>75</v>
+      </c>
+      <c r="N43">
+        <f>SUM(N40:N42)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <f>'2010'!$B$11</f>
+        <v>60</v>
+      </c>
+      <c r="E44">
+        <f>'2010'!$C$11</f>
+        <v>65</v>
+      </c>
+      <c r="F44">
+        <f>'2010'!$D$11</f>
+        <v>60</v>
+      </c>
+      <c r="G44">
+        <f>'2010'!$E$11</f>
+        <v>65</v>
+      </c>
+      <c r="H44">
+        <f>'2010'!$F$11</f>
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <f>'2010'!$G$11</f>
+        <v>80</v>
+      </c>
+      <c r="J44">
+        <f>'2010'!$H$11</f>
+        <v>75</v>
+      </c>
+      <c r="K44">
+        <f>'2010'!$I$11</f>
+        <v>65</v>
+      </c>
+      <c r="L44">
+        <f>'2010'!$J$11</f>
+        <v>65</v>
+      </c>
+      <c r="M44">
+        <f>'2010'!$K$11</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <f>'2011'!$B$13</f>
+        <v>65</v>
+      </c>
+      <c r="D45">
+        <f>'2011'!$C$13</f>
+        <v>75</v>
+      </c>
+      <c r="F45">
+        <f>'2011'!$D$13</f>
+        <v>80</v>
+      </c>
+      <c r="G45">
+        <f>'2011'!$E$13</f>
+        <v>65</v>
+      </c>
+      <c r="H45">
+        <f>'2011'!$F$13</f>
+        <v>60</v>
+      </c>
+      <c r="I45">
+        <f>'2011'!$G$13</f>
+        <v>65</v>
+      </c>
+      <c r="J45">
+        <f>'2011'!$H$13</f>
+        <v>65</v>
+      </c>
+      <c r="K45">
+        <f>'2011'!$I$13</f>
+        <v>50</v>
+      </c>
+      <c r="L45">
+        <f>'2011'!$J$13</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <f>'2012'!$B$13</f>
+        <v>70</v>
+      </c>
+      <c r="F46">
+        <f>'2012'!$C$13</f>
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <f>'2012'!$D$13</f>
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <f>'2012'!$E$13</f>
+        <v>80</v>
+      </c>
+      <c r="I46">
+        <f>'2012'!$F$13</f>
+        <v>45</v>
+      </c>
+      <c r="J46">
+        <f>'2012'!$G$13</f>
+        <v>55</v>
+      </c>
+      <c r="K46">
+        <f>'2012'!$H$13</f>
+        <v>50</v>
+      </c>
+      <c r="N46">
+        <f>'2012'!$I$13</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <f>SUM(C44:C46)</f>
+        <v>65</v>
+      </c>
+      <c r="D47">
+        <f>SUM(D44:D46)</f>
+        <v>205</v>
+      </c>
+      <c r="E47">
+        <f>SUM(E44:E46)</f>
+        <v>65</v>
+      </c>
+      <c r="F47">
+        <f>SUM(F44:F46)</f>
+        <v>190</v>
+      </c>
+      <c r="G47">
+        <f>SUM(G44:G46)</f>
+        <v>180</v>
+      </c>
+      <c r="H47">
+        <f>SUM(H44:H46)</f>
+        <v>190</v>
+      </c>
+      <c r="I47">
+        <f>SUM(I44:I46)</f>
+        <v>190</v>
+      </c>
+      <c r="J47">
+        <f>SUM(J44:J46)</f>
+        <v>195</v>
+      </c>
+      <c r="K47">
+        <f>SUM(K44:K46)</f>
+        <v>165</v>
+      </c>
+      <c r="L47">
+        <f>SUM(L44:L46)</f>
+        <v>125</v>
+      </c>
+      <c r="M47">
+        <f>SUM(M44:M46)</f>
+        <v>60</v>
+      </c>
+      <c r="N47">
+        <f>SUM(N44:N46)</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate leftLabels="1" topLabels="1" link="1">
+    <dataRefs count="3">
+      <dataRef ref="A1:K11" sheet="2010"/>
+      <dataRef ref="A1:J13" sheet="2011"/>
+      <dataRef ref="A1:J13" sheet="2012"/>
+    </dataRefs>
+  </dataConsolidate>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>